--- a/試験項目書/総合試験項目書.xlsx
+++ b/試験項目書/総合試験項目書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC32B85F-4E99-4915-AC55-5C9C6B5CB675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC507A0-6ADE-4CD5-A9C4-9CD9194F6FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>◆</t>
   </si>
@@ -570,6 +570,210 @@
   </si>
   <si>
     <t>◯</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JTM03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】 　　　　　　　　　　　　　　　　　　　　　　</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JTM03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JTM03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】　　　　　　　　　　　　　　　　　　　　　　　ログアウトボタンが表示されるか、　　　　　　　　ログアウト後セッションが切れるか　　　　　　　　　　　　　　　　　　　　　</t>
+    </r>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイト入場</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザ名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>isamember1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、パスワード：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nakagawa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>でログイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホーム画面閲覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ログアウトボタンを押す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ログアウト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="67" eb="68">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -580,7 +784,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -632,6 +836,12 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -829,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -891,6 +1101,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,7 +1113,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1464,10 +1686,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Y16"/>
+  <dimension ref="A2:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1500,27 +1722,27 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -1539,11 +1761,11 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="20" t="s">
         <v>29</v>
       </c>
@@ -1572,7 +1794,7 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="23">
         <f t="shared" ref="B7:B16" si="0">ROW()-6</f>
@@ -1596,7 +1818,7 @@
       <c r="H7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="33" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="25"/>
@@ -1616,7 +1838,7 @@
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:25" ht="142.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="26">
         <f t="shared" si="0"/>
@@ -1640,7 +1862,7 @@
       <c r="H8" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="33" t="s">
         <v>44</v>
       </c>
       <c r="J8" s="27"/>
@@ -1662,18 +1884,15 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
-      <c r="B9" s="23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1692,18 +1911,15 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
-      <c r="B10" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -1722,18 +1938,15 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
-      <c r="B11" s="23">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -1752,18 +1965,21 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
-      <c r="B12" s="23">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>43810</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -1782,18 +1998,19 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
-      <c r="B13" s="23">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>43810</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -1812,18 +2029,15 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
-      <c r="B14" s="23">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -1842,18 +2056,15 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
-      <c r="B15" s="23">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1872,18 +2083,15 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
-      <c r="B16" s="23">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -1900,8 +2108,106 @@
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="26">
+        <f t="shared" ref="B19:B20" si="1">ROW()-6</f>
+        <v>13</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="24">
+        <v>43804</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="27"/>
+    </row>
+    <row r="20" spans="2:10" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="24">
+        <v>43804</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
@@ -1911,5 +2217,6 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/試験項目書/総合試験項目書.xlsx
+++ b/試験項目書/総合試験項目書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC507A0-6ADE-4CD5-A9C4-9CD9194F6FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD72980-F870-411C-842C-5524A7D8FEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>◆</t>
   </si>
@@ -187,24 +187,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>】 　　　　　　　　　　　　　　　　　　　　　　小計が１万円未満の場合、送料が１律</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>¥540</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と　表示される</t>
+      <t>】 　　　　　　　　　　　　　　　　　　　　　　小計が１万円以上の場合、送料・手数料:無料と緑色で表示される</t>
     </r>
     <rPh sb="30" eb="32">
       <t>ショウケイ</t>
@@ -213,7 +196,7 @@
       <t>マンエン</t>
     </rPh>
     <rPh sb="36" eb="38">
-      <t>ミマン</t>
+      <t>イジョウ</t>
     </rPh>
     <rPh sb="39" eb="41">
       <t>バアイ</t>
@@ -221,558 +204,421 @@
     <rPh sb="42" eb="44">
       <t>ソウリョウ</t>
     </rPh>
+    <rPh sb="45" eb="48">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイト入場</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザ名：isamember1、パスワード：nakagawaでログイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホーム画面閲覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>商品「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GoogleHome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」の商品画面を閲覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>商品「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GoogleHome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」を1個カートに入れる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>決済</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>決済完了</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>JTM15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">JTM3 </t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイト入場</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザ名：isamember1、パスワード：nakagawaでログイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホーム画面閲覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>商品「チョコレート」の商品画面を閲覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>商品「チョコレート」を1個カートに入れる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>決済</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>決済完了　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　8:ログアウトボタンを押す　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　9：ログアウト　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　10：ホーム画面に遷移</t>
+    </r>
+    <rPh sb="160" eb="161">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JTM15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】 　　　　　　　　　　　　　　　　　　　　　　小計が１万円未満の場合、送料が１律</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>¥540</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と　表示される　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>JTM03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　ログアウトボタンが表示されるか、　　　　　　　　ログアウト後セッションが切れるか　　　　　　</t>
+    </r>
+    <rPh sb="30" eb="32">
+      <t>ショウケイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソウリョウ</t>
+    </rPh>
     <rPh sb="46" eb="47">
       <t>リツ</t>
     </rPh>
     <rPh sb="53" eb="55">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JTM15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】 　　　　　　　　　　　　　　　　　　　　　　小計が１万円以上の場合、送料・手数料:無料と緑色で表示される</t>
-    </r>
-    <rPh sb="30" eb="32">
-      <t>ショウケイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>マンエン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ソウリョウ</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>テスウリョウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ムリョウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サイト入場</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ユーザ名：isamember1、パスワード：nakagawaでログイン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ホーム画面閲覧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>商品「チョコレート」の商品画面を閲覧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>商品「チョコレート」を1個カートに入れる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>決済</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>決済完了</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サイト入場</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ユーザ名：isamember1、パスワード：nakagawaでログイン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ホーム画面閲覧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>商品「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GoogleHome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」の商品画面を閲覧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>商品「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GoogleHome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」を1個カートに入れる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-6.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>決済</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>決済完了</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>◯</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JTM03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】 　　　　　　　　　　　　　　　　　　　　　　</t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>JTM03</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JTM03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】　　　　　　　　　　　　　　　　　　　　　　　ログアウトボタンが表示されるか、　　　　　　　　ログアウト後セッションが切れるか　　　　　　　　　　　　　　　　　　　　　</t>
-    </r>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サイト入場</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ユーザ名：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>isamember1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、パスワード：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nakagawa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>でログイン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="メイリオ"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ホーム画面閲覧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ログアウトボタンを押す</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ログアウト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <rPh sb="67" eb="68">
-      <t>オ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -784,7 +630,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -835,12 +681,6 @@
       <sz val="10"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1104,15 +944,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1125,6 +956,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1686,10 +1526,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Y20"/>
+  <dimension ref="A2:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1717,32 +1557,34 @@
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="9">
+        <v>41621</v>
+      </c>
       <c r="D3" s="11"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -1761,11 +1603,11 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="20" t="s">
         <v>29</v>
       </c>
@@ -1794,32 +1636,32 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="23">
-        <f t="shared" ref="B7:B16" si="0">ROW()-6</f>
+        <f t="shared" ref="B7:B8" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G7" s="24">
-        <v>43804</v>
+        <v>43812</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>37</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="13"/>
@@ -1851,10 +1693,10 @@
         <v>39</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="24">
         <v>43804</v>
@@ -1863,7 +1705,7 @@
         <v>37</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="13"/>
@@ -1884,15 +1726,15 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1911,15 +1753,15 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -1938,15 +1780,15 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -1965,21 +1807,15 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>43810</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -1998,19 +1834,15 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4">
-        <v>43810</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
@@ -2029,15 +1861,15 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
@@ -2056,15 +1888,15 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -2083,15 +1915,15 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -2108,106 +1940,86 @@
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
     </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-    </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="26">
-        <f t="shared" ref="B19:B20" si="1">ROW()-6</f>
-        <v>13</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="24">
-        <v>43804</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="27"/>
-    </row>
-    <row r="20" spans="2:10" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="26">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="24">
-        <v>43804</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="27"/>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+  <mergeCells count="6">
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>

--- a/試験項目書/総合試験項目書.xlsx
+++ b/試験項目書/総合試験項目書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD72980-F870-411C-842C-5524A7D8FEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D103B0-487C-4E2F-A6BE-22DEC3FBE436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>◆</t>
   </si>
@@ -164,65 +164,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JTM15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】 　　　　　　　　　　　　　　　　　　　　　　小計が１万円以上の場合、送料・手数料:無料と緑色で表示される</t>
-    </r>
-    <rPh sb="30" eb="32">
-      <t>ショウケイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>マンエン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ソウリョウ</t>
-    </rPh>
-    <rPh sb="45" eb="48">
-      <t>テスウリョウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ムリョウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
       <t>1.</t>
     </r>
     <r>
@@ -538,6 +479,197 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>JTM16</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サイト入場</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザ名：isamember1、パスワード：nakagawaでログイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホーム画面閲覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>商品「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GoogleHome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」の商品画面を閲覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>商品「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GoogleHome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」を1個カートに入れる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ラッピングの有無のボタンにチェック（有を選択）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ショッピングページに遷移する　　　　　　　　　　　　　　　　　　　　　　　　　　8.商品「チョコレート」を１個カートに入れる　　　　　　　　　　　　　　　　　　　　9.決済　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　10.決済完了</t>
+    </r>
+    <rPh sb="116" eb="118">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="195" eb="196">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -562,7 +694,66 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>】 　　　　　　　　　　　　　　　　　　　　　　小計が１万円未満の場合、送料が１律</t>
+      <t>】 　　　　　　　　　　　　　　　　　　　　　　　小計が１万円以上の場合、送料・手数料:無料と緑色で表示される</t>
+    </r>
+    <rPh sb="31" eb="33">
+      <t>ショウケイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JTM15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】 　　　　　　　　　　　　　　　　　　　　　　　小計が１万円未満の場合、送料が１律</t>
     </r>
     <r>
       <rPr>
@@ -597,28 +788,81 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>】　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　ログアウトボタンが表示されるか、　　　　　　　　ログアウト後セッションが切れるか　　　　　　</t>
-    </r>
-    <rPh sb="30" eb="32">
+      <t>】　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　1.ログアウトボタンが表示されるか、　　　　　　　　2.ログアウト後セッションが切れるか　　　　　　</t>
+    </r>
+    <rPh sb="31" eb="33">
       <t>ショウケイ</t>
     </rPh>
-    <rPh sb="34" eb="36">
+    <rPh sb="35" eb="37">
       <t>マンエン</t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="37" eb="39">
       <t>ミマン</t>
     </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JTM16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】 　　　　　　　　　　　　　　　　　　　　　　　1.ラッピングの有無を選択出来るか　　　　　　　　　2.ラッピング選択後、他のページに遷移にしても　ラッピング有が保持されているか　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+    </r>
     <rPh sb="39" eb="41">
-      <t>バアイ</t>
+      <t>ウム</t>
     </rPh>
     <rPh sb="42" eb="44">
-      <t>ソウリョウ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒョウジ</t>
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>センタクゴ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ホジ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -879,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -932,22 +1176,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,6 +1187,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1526,10 +1764,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Y22"/>
+  <dimension ref="A2:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1558,33 +1796,33 @@
         <v>12</v>
       </c>
       <c r="C3" s="9">
-        <v>41621</v>
+        <v>41632</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -1603,11 +1841,11 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="20" t="s">
         <v>29</v>
       </c>
@@ -1639,29 +1877,29 @@
     <row r="7" spans="1:25" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="23">
-        <f t="shared" ref="B7:B8" si="0">ROW()-6</f>
+        <f t="shared" ref="B7:B9" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>45</v>
+      <c r="E7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="24">
         <v>43812</v>
       </c>
-      <c r="H7" s="32" t="s">
+      <c r="H7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="33" t="s">
-        <v>42</v>
+      <c r="I7" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="13"/>
@@ -1692,20 +1930,20 @@
       <c r="D8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="34" t="s">
         <v>40</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="24">
         <v>43804</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="33" t="s">
-        <v>42</v>
+      <c r="I8" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="13"/>
@@ -1724,17 +1962,32 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
     </row>
-    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="254.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35"/>
+      <c r="B9" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="24">
+        <v>43823</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -1753,15 +2006,15 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -1898,20 +2151,6 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
@@ -1925,20 +2164,6 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
@@ -1991,32 +2216,6 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/試験項目書/総合試験項目書.xlsx
+++ b/試験項目書/総合試験項目書.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DesignDocs\試験項目書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D103B0-487C-4E2F-A6BE-22DEC3FBE436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCD9BAF-874F-46AD-9132-DD74994C9621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="14760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本方針" sheetId="1" r:id="rId1"/>
     <sheet name="総合試験項目書" sheetId="2" r:id="rId2"/>
+    <sheet name="成果発表用" sheetId="3" r:id="rId3"/>
+    <sheet name="成果発表用2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>◆</t>
   </si>
@@ -163,12 +165,217 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
+    <t>◯</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JTM16</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>◯</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>案件</t>
+    <rPh sb="0" eb="2">
+      <t>アンケン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ファイル</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>改修・新規</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ページ数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>JTM03</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面設計書（ログイン）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>改修</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>画面設計書（決済）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>【研修内化成化】テーブル定義書</t>
+    <rPh sb="1" eb="4">
+      <t>ケンシュウナイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シゲル</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>テイギショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>改修ページ数合計　　４</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>改修ページ数合計　５　</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>PG仕様書（ログイン）</t>
+    <rPh sb="2" eb="5">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>PG仕様書（決済）</t>
+    <rPh sb="2" eb="5">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッサイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>行数</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>payment.jsp</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>paymentQtyChgLogic.java</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OrderDetailAddLogic.java</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CartInfo DAO</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OrderDetai DAO</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>CartInfo Bean.jsp</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>OrderDetail Bean</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>header.jsp</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>改修　行数合計　65行</t>
+    <rPh sb="0" eb="2">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ProductServlet.java</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <r>
       <t>1.</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -177,7 +384,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -186,7 +393,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -195,7 +402,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -204,7 +411,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -213,7 +420,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -222,33 +429,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>商品「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GoogleHome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」の商品画面を閲覧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>商品「チョコレート」の商品画面を閲覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -257,33 +447,16 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>商品「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GoogleHome</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」を1個カートに入れる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>商品「チョコレート」を1個カートに入れる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -292,7 +465,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -301,7 +474,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -310,58 +483,40 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>決済完了</t>
-    </r>
+      <t>決済完了　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　8:ログアウトボタンを押す　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　9：ログアウト　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　10：ホーム画面に遷移</t>
+    </r>
+    <rPh sb="160" eb="161">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>センイ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>◯</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>JTM15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">JTM3 </t>
-    </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>サイト入場</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -370,7 +525,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -379,7 +534,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -388,7 +543,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -397,7 +552,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -406,16 +561,33 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>商品「チョコレート」の商品画面を閲覧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>商品「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GoogleHome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」の商品画面を閲覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -424,16 +596,33 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>商品「チョコレート」を1個カートに入れる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>商品「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GoogleHome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」を1個カートに入れる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -442,7 +631,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -451,7 +640,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -460,26 +649,72 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>決済完了　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　8:ログアウトボタンを押す　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　9：ログアウト　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　10：ホーム画面に遷移</t>
-    </r>
-    <rPh sb="160" eb="161">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>センイ</t>
-    </rPh>
+      <t>決済完了</t>
+    </r>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>JTM16</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JTM15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】 　　　　　　　　　　　　　　　　　　　　　　　小計が１万円以上の場合、送料・手数料:無料と緑色で表示される</t>
+    </r>
+    <rPh sb="31" eb="33">
+      <t>ショウケイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>マンエン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -488,7 +723,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -497,7 +732,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -506,7 +741,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -515,7 +750,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -524,7 +759,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -533,7 +768,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -542,7 +777,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -551,7 +786,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -559,7 +794,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -568,7 +803,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -577,7 +812,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -586,7 +821,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -594,7 +829,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -603,7 +838,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -612,7 +847,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -621,21 +856,38 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>ショッピングページに遷移する　　　　　　　　　　　　　　　　　　　　　　　　　　8.商品「チョコレート」を１個カートに入れる　　　　　　　　　　　　　　　　　　　　9.決済　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　10.決済完了</t>
+      <t>　　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ホーム画面に遷移する　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　8.商品「チョコレート」を１個カートに入れる　　　　　　　　　　　　　　　　　　　　　9.決済　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　10.決済完了</t>
     </r>
     <rPh sb="116" eb="118">
       <t>ウム</t>
@@ -646,25 +898,28 @@
     <rPh sb="130" eb="132">
       <t>センタク</t>
     </rPh>
-    <rPh sb="146" eb="148">
+    <rPh sb="142" eb="144">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="145" eb="147">
       <t>センイ</t>
     </rPh>
-    <rPh sb="178" eb="180">
+    <rPh sb="217" eb="219">
       <t>ショウヒン</t>
     </rPh>
-    <rPh sb="190" eb="191">
+    <rPh sb="229" eb="230">
       <t>コ</t>
     </rPh>
-    <rPh sb="195" eb="196">
+    <rPh sb="234" eb="235">
       <t>イ</t>
     </rPh>
-    <rPh sb="220" eb="222">
+    <rPh sb="260" eb="262">
       <t>ケッサイ</t>
     </rPh>
-    <rPh sb="265" eb="267">
+    <rPh sb="305" eb="307">
       <t>ケッサイ</t>
     </rPh>
-    <rPh sb="267" eb="269">
+    <rPh sb="307" eb="309">
       <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
@@ -672,7 +927,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
@@ -681,20 +936,108 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>JTM16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】 　　　　　　　　　　　　　　　　　　　　　　　1.ラッピングの有無を選択出来るか　　　　　　　　                    　2.ラッピング選択後、ホーム画面に遷移にしても　ラッピング有が保持されているか　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+    </r>
+    <rPh sb="39" eb="41">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>センタクゴ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>JTM15</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>】 　　　　　　　　　　　　　　　　　　　　　　　小計が１万円以上の場合、送料・手数料:無料と緑色で表示される</t>
+      <t>】 　　　　　　　　　　　　　　　　　　　　　　　小計が１万円未満の場合、送料が１律</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>¥540</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と　表示される　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>JTM03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>】　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　1.ログアウトボタンが                表示されるか、　　　　　　　     　2.ログアウト後セッションが切れるか　　　　　　</t>
     </r>
     <rPh sb="31" eb="33">
       <t>ショウケイ</t>
@@ -703,7 +1046,7 @@
       <t>マンエン</t>
     </rPh>
     <rPh sb="37" eb="39">
-      <t>イジョウ</t>
+      <t>ミマン</t>
     </rPh>
     <rPh sb="40" eb="42">
       <t>バアイ</t>
@@ -711,100 +1054,6 @@
     <rPh sb="43" eb="45">
       <t>ソウリョウ</t>
     </rPh>
-    <rPh sb="46" eb="49">
-      <t>テスウリョウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ムリョウ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JTM15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】 　　　　　　　　　　　　　　　　　　　　　　　小計が１万円未満の場合、送料が１律</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>¥540</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>と　表示される　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>JTM03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　1.ログアウトボタンが表示されるか、　　　　　　　　2.ログアウト後セッションが切れるか　　　　　　</t>
-    </r>
-    <rPh sb="31" eb="33">
-      <t>ショウケイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>マンエン</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ミマン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ソウリョウ</t>
-    </rPh>
     <rPh sb="47" eb="48">
       <t>リツ</t>
     </rPh>
@@ -815,55 +1064,25 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
+      <t>JTM15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>JTM16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>】 　　　　　　　　　　　　　　　　　　　　　　　1.ラッピングの有無を選択出来るか　　　　　　　　　2.ラッピング選択後、他のページに遷移にしても　ラッピング有が保持されているか　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
-    </r>
-    <rPh sb="39" eb="41">
-      <t>ウム</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="64" eb="67">
-      <t>センタクゴ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ホジ</t>
-    </rPh>
+      <t xml:space="preserve">JTM03 </t>
+    </r>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -874,7 +1093,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -911,23 +1130,66 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -952,8 +1214,20 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1119,29 +1393,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1157,43 +1490,104 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1203,6 +1597,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1218,6 +1636,825 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>346305</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>494405</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA1DF6A-33C2-4246-90DD-EB5D942739D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2117955" y="15144750"/>
+          <a:ext cx="5310650" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484880</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91A793B6-3595-4FF5-943E-E218286D656E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000249" y="11972925"/>
+          <a:ext cx="5418831" cy="3523658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504405</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>332449</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>104018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FBA5A9-0D70-4E65-8EEB-29D4E1EE8660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7857705" y="11991974"/>
+          <a:ext cx="4095244" cy="3342519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>480194</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292574</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>75652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E82F1AB-711B-415F-880F-BF67701A0B13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7833494" y="15335250"/>
+          <a:ext cx="4079580" cy="2399752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>159996</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>884889</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>27763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15246D3F-9D82-4A2B-A5C9-A92C2433394D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="11990046"/>
+          <a:ext cx="4513914" cy="3915892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>154730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>967185</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>66191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A43F6B-67BF-4BBF-8A97-8DD55E363A42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12411075" y="15385205"/>
+          <a:ext cx="4605735" cy="2340336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1399476</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AD51177-2DBB-4091-A3EF-3E4A88DE828D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="6191250"/>
+          <a:ext cx="5590476" cy="2219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>256609</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B164DFB-582D-4214-B4E6-26D2BA31E6E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7953375" y="6743700"/>
+          <a:ext cx="4523809" cy="1552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>475581</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>75948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C22AD4C-8D3B-4035-9C7D-5F98C07FA893}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8562975" y="8848725"/>
+          <a:ext cx="5352381" cy="2019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>566326</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11" descr="「プルダウンボタン java」の画像検索結果">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0347DA-7ECA-45C0-B1F1-669CF69D8135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10072276" y="876300"/>
+          <a:ext cx="3081749" cy="2085975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>569989</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61BBB0E-0D6E-4559-B837-8601D001C122}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12152389" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>284357</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28311</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1370452-FD9D-413C-BE94-C7551342333C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648700" y="4714875"/>
+          <a:ext cx="11142857" cy="2114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>465328</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8403F7-9A64-492C-BE23-5C3AF4889C3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="7353300"/>
+          <a:ext cx="11171428" cy="1200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>141364</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>113938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641A43E4-E1E7-445E-89C8-0BF8F17D8E9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="6934200"/>
+          <a:ext cx="12085714" cy="2895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>579514</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6732C36-9575-43DB-9AB7-EB4DD98F2EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="1552575"/>
+          <a:ext cx="12085714" cy="1961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74683</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>94883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC4BB68-E830-4C81-868E-48A44D661402}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="10115550"/>
+          <a:ext cx="12133333" cy="2933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>246253</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3B36B7-2D77-478E-A1DC-C516103D180C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="13154025"/>
+          <a:ext cx="11171428" cy="1752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>140653</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>113886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A259A517-58EE-4942-BA00-0443FF8DE399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="13154025"/>
+          <a:ext cx="17771428" cy="3314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1554,7 +2791,7 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1591,14 +2828,14 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="8"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1607,7 +2844,7 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1617,15 +2854,15 @@
         <v>14</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="N12" s="12"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="14" t="str">
+      <c r="B13" s="9" t="str">
         <f>HYPERLINK("https://docs.google.com/spreadsheets/d/1Yn8FW0PeDolrFQi6usyOiVC0VnpxF5JFZH4ykIakEgE/edit#gid=1897458408","遷移図参考")</f>
         <v>遷移図参考</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>22</v>
@@ -1633,7 +2870,7 @@
       <c r="L13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="12"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1642,7 +2879,7 @@
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
         <v>22</v>
@@ -1653,10 +2890,10 @@
       <c r="M14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="12"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1665,23 +2902,23 @@
       <c r="K15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I16" s="10"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="16"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -1690,16 +2927,16 @@
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1710,14 +2947,14 @@
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -1764,458 +3001,463 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:Y20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="58.7109375" customWidth="1"/>
     <col min="6" max="6" width="38.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="50">
         <v>43804</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="53">
         <v>41632</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
+      <c r="D3" s="54"/>
+    </row>
+    <row r="4" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="39" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="20" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-    </row>
-    <row r="7" spans="1:25" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="23">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+    </row>
+    <row r="7" spans="1:25" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="41">
         <f t="shared" ref="B7:B9" si="0">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="24">
+      <c r="E7" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="45">
         <v>43812</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-    </row>
-    <row r="8" spans="1:25" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="26">
+      <c r="I7" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" ht="163.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="45">
+        <v>43804</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="24">
-        <v>43804</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-    </row>
-    <row r="9" spans="1:25" ht="254.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="26">
+      <c r="J8" s="48"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+    </row>
+    <row r="9" spans="1:25" ht="230.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="41">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="24">
+      <c r="E9" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="45">
         <v>43823</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
+      <c r="I9" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="48"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2230,4 +3472,468 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E12811-7DE5-4EF2-832F-D3F716FFA1B1}">
+  <dimension ref="A1:X24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="20" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="31" customWidth="1"/>
+    <col min="23" max="24" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="61"/>
+      <c r="B2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="61"/>
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="61"/>
+      <c r="B4" s="22">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="22">
+        <v>3</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="22">
+        <v>4</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+    </row>
+    <row r="9" spans="1:24" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="V14" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+    </row>
+    <row r="15" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="V15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="X15" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="37">
+        <v>4</v>
+      </c>
+      <c r="U16" s="36"/>
+      <c r="V16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="W16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="X16" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="32">
+        <v>5</v>
+      </c>
+      <c r="U17" s="33"/>
+      <c r="V17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="W17" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="X17" s="32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="T18" s="32">
+        <v>6</v>
+      </c>
+      <c r="U18" s="32"/>
+      <c r="V18" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="W18" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="X18" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" s="34">
+        <v>7</v>
+      </c>
+      <c r="U19" s="34"/>
+      <c r="V19" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="X19" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="32">
+        <v>1</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="32">
+        <v>1</v>
+      </c>
+      <c r="T20" s="34">
+        <v>8</v>
+      </c>
+      <c r="U20" s="34"/>
+      <c r="V20" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="W20" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="X20" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="32">
+        <v>2</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1</v>
+      </c>
+      <c r="T21" s="34">
+        <v>9</v>
+      </c>
+      <c r="U21" s="34"/>
+      <c r="V21" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="W21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="X21" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="34">
+        <v>3</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="34">
+        <v>3</v>
+      </c>
+      <c r="T22" s="34">
+        <v>10</v>
+      </c>
+      <c r="U22" s="34"/>
+      <c r="V22" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="W22" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="X22" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="T23" s="34">
+        <v>11</v>
+      </c>
+      <c r="U23" s="34"/>
+      <c r="V23" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="W23" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="X23" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="4:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="25"/>
+      <c r="T24" s="32">
+        <v>12</v>
+      </c>
+      <c r="U24" s="32"/>
+      <c r="V24" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="W24" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="X24" s="32">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B7:G8"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314AB62B-ED89-46CB-A31F-BA75941293E7}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="2" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="3" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="4" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="6" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="7" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="8" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="9" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="10" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="11" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="12" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="13" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="14" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="15" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="16" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="17" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="18" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="19" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="20" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="21" s="55" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>